--- a/Secretarias/CCLV/CCLV_OK.xlsx
+++ b/Secretarias/CCLV/CCLV_OK.xlsx
@@ -1,38 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Carmona\Documents\GitHub\MapasTematicos\Secretarias\CCLV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DarkcShadow\Documents\GitHub\MapasTematicos\Secretarias\CCLV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B775E1-D81E-46F4-8940-26F31AAA5A52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3266C35-6380-4022-9125-3CBAA45ECB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="1" r:id="rId1"/>
-    <sheet name="DELEGACIONES_REGIONALES" sheetId="2" r:id="rId2"/>
+    <sheet name="2023" sheetId="3" r:id="rId2"/>
+    <sheet name="2024" sheetId="4" r:id="rId3"/>
+    <sheet name="DELEGACIONES_REGIONALES" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="545">
   <si>
     <t>921 215 5311</t>
   </si>
@@ -1677,12 +1673,195 @@
 Tatahuicapan de Juárez,
 Uxpanapa.</t>
   </si>
+  <si>
+    <t>Lic. Heriberto Rogel Martínez</t>
+  </si>
+  <si>
+    <t>Lic. Gabriela Parada Rodríguez</t>
+  </si>
+  <si>
+    <t>Lic. Jose Antonio Perez Hernandez</t>
+  </si>
+  <si>
+    <t>Lic. Ana Laura Camacho Salto</t>
+  </si>
+  <si>
+    <t>Lic. Christian Jair Aquino Ceballos</t>
+  </si>
+  <si>
+    <t>Lic. Candelaria de los Angeles Dimas Aguirre</t>
+  </si>
+  <si>
+    <t>Lic. Hugo Enrique Ortiz Carrera</t>
+  </si>
+  <si>
+    <t>Lic. Javier Salgado Torres</t>
+  </si>
+  <si>
+    <t>Lic. Laurita Vaneza García Fonseca</t>
+  </si>
+  <si>
+    <t>Lic. Samuel Alcaraz Orozco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle Melchor Ocampo número 19 Planta Baja, esquina Ignacio de la Llave, Colonia Centro,C.P. 93990, Pánuco, Veracruz. </t>
+  </si>
+  <si>
+    <t>Chalma, Chiconamel, Chinampa de Gorostiza, Chontla, Citlaltépec, El Higo, Ixcatepec, Naranjos Amatlán, Ozuluama, Pánuco, Platón Sánchez, Pueblo Viejo, Tamalín, Tampico Alto, Tancoco, Tantima, Tantoyuca y Tempoal.</t>
+  </si>
+  <si>
+    <t>Tel. 846 282 1346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avenida Cuauhtémoc Sin Número Primer Piso esquina 15 de septiembre, Colonia Centro, Código Postal 92800, de la Ciudad y Puerto de Tuxpan, Veracruz. </t>
+  </si>
+  <si>
+    <t>Álamo Temapache, Benito Juárez, Cerro Azul, Chicontepec, Huayacocotla, Ilamatlán, Ixhuatlán de Madero, Tamiahua, Tepetzintla, Texcatepec, Tlachichilco, Tuxpan, Zacualpan y Zontecomatlán.</t>
+  </si>
+  <si>
+    <t>Tel. 783 107 1491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle Central Poniente. #28, planta baja, Colonia Anáhuac, Código Postal 93270, Poza Rica de Hidalgo, Veracruz. </t>
+  </si>
+  <si>
+    <t>Castillo de Teayo, Cazones de Herrera, Chumatlán, Coahuitlán, Coatzintla, Coxquihui, Coyutla, Espinal, Filomeno Mata, Gutiérrez Zamora, Mecatlán, Papantla, Poza Rica, Tecolutla, Tihuatlán y Zozocolco de Hidalgo.</t>
+  </si>
+  <si>
+    <t>Tel 782 119 9271</t>
+  </si>
+  <si>
+    <t>Avenida Pedro Belli, Número 412 planta baja, esquina calle Guadalupe Victoria, Colonia Centro, Código Postal 93600, de la Ciudad de Martínez de la Torre, Veracruz.</t>
+  </si>
+  <si>
+    <t>olipa, Juchique de Ferrer, Martínez de la Torre, Misantla, Nautla, San, Rafael, Tenochtitlán, Tlapacoyan, Vega de Alatorre y Yecuatla.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tel. 232 373 9456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manuel Ávila Camacho 195 Int. 1, Col. Francisco Ferrer Guardia.  C.P. 91026 . </t>
+  </si>
+  <si>
+    <t>Acajete, Acatlán, Actopan, Alto Lucero de Gutiérrez Barrios, Altotonga, Atzalan, Apazapan, Ayahualulco, Banderilla, Chiconquiaco, Coacoatzintla, Coatepec, Cosautlán de Carvajal, Emiliano Zapata, Ixhuacán de los Reyes, Jalacingo, Jalcomulco, Jilotepec, Landero y Coss, Las Minas, Las Vigas de Ramírez, Miahuatlán, Naolinco, Perote, Rafael Lucio, Tatatila, Teocelo, Tepetlán, Tlalnelhuayocan, Tonayán, Tlacolulan, Villa Aldama, Xalapa y Xico.</t>
+  </si>
+  <si>
+    <t>Tel. 228 820 7977</t>
+  </si>
+  <si>
+    <t>Calle Tiburón 76, Fraccionamiento Costa de Oro, Código Postal 94299, de la Ciudad de Boca del Río, Veracruz.</t>
+  </si>
+  <si>
+    <t>Alvarado, Boca del Río, Cotaxtla, Ignacio de la Llave, Jamapa, La Antigua, Manilo Fabio Altamirano, Medellín, Paso de Ovejas, Puente Nacional, Soledad de Doblado, Tlalixcoyan, Úrsulo Galván y Veracruz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tel. 229 688 3970</t>
+  </si>
+  <si>
+    <t>Calle 1 #207 interior 05 y 06, entre Avenida 2 y 4, Edificio María Isabel Plaza, Colonia Centro, Código Postal 94500, Córdoba, Veracruz.  </t>
+  </si>
+  <si>
+    <t>Acultzingo, Alpatláhuac, Amatlán de los Reyes, Aquila, Astacinga, Atlahuilco, Atoyac, Atzacan, Camerino Z. Mendoza, Calcahualco, Camarón de Tejada, Carrillo Puerto, Chocamán, Coetzala, Comapa, Córdoba, Coscomatepec, Cuichapa, Cuitláhuac, Fortín, Huatusco, Huiloapan de Cuauhtémoc, Ixhuatlán del Café, Ixhuatlancillo, Ixtaczoquitlán, La Perla, Los Reyes, Magdalena, Maltrata, Mariano Escobedo, Mixtla de Altamirano, Naranjal, Nogales, Omealca, Orizaba, Paso del Macho, Rafael Delgado, Río Blanco, San Ándres Tenejapan, Sochiapa, Soledad Atzompa, Tehuipango, Tenampa, Tepatlaxco, Tequila, Texhuacán, Tezonapa, Tlacotepec de Mejía, Tlaltetela, Tlaquilpan, Tlilapan, Tomatlán, Totula, Xoxocotla, Yanga, Zentla y Zongolica.</t>
+  </si>
+  <si>
+    <t>Tel. 271 712 0885</t>
+  </si>
+  <si>
+    <t>Prolongación 5 de mayo S/N, primer piso, Colonia Chapan, Código Postal 95718, San Andrés Tuxtla,</t>
+  </si>
+  <si>
+    <t>Ángel R. Cabada, Catemaco, Hueyapan de Ocampo, Isla Juan Rodríguez Clara, Lerdo de Tejada, Saltabarranca, San Andrés Tuxtla y Santiago Tuxtla.</t>
+  </si>
+  <si>
+    <t>Tel. 294 942 6296</t>
+  </si>
+  <si>
+    <t>Calle Morelos esquina Belisario Domínguez S/N, Colonia Centro, Código Postal 95400, Bajos de Palacio Municipal, Cosamaloapan, Veracruz.  </t>
+  </si>
+  <si>
+    <t>Acula, Amatitlán, Carlos A. Carrillo, Chacaltianguis, Cosamaloapan, Ixmatlahuacan, José Azueta, Otatitlán Playa Vicente, Santiago Sochiapan, Tierra Blanca, Tlacojalpan, Tlacotalpan, Tres Valles y Tuxtilla.</t>
+  </si>
+  <si>
+    <t>Tel. 288 688 0449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle Porfirio Díaz 616, Colonia Barrio el Zapotal, C.P. 96039, Acayucan, Veracruz. </t>
+  </si>
+  <si>
+    <t>Acayucan, Jáltipan, Jesús Carranza, Mecayapan, Oluta, San Juan Evangelista, Sayula de Alemán, Soconusco, Soteapan y Texistepec.</t>
+  </si>
+  <si>
+    <t>Tel. 924 688 5372</t>
+  </si>
+  <si>
+    <t>Avenida Lázaro Cárdenas Esquina Abasolo, Número 900, primer piso planta baja, Colonia María de la Piedad, Código Postal 96410 , de la Ciudad y Puerto de Coatzacoalcos, Veracruz. Tel. 9212155311</t>
+  </si>
+  <si>
+    <t>Agua Dulce, Chinameca, Coatzacoalcos, Cosoleacaque, Hidalgotitlán, Ixhuatlán del Sureste, Las Choapas, Minatitlán, Moloacán, Nanchital de Lázaro Cárdenas, Oteapan, Pajapan, Tatathuicapan de Juárez, Uxpanapa y Zaragoza.</t>
+  </si>
+  <si>
+    <t>Tel. 921 215 5311</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53678627791_1a93ab75d1_n.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53677762512_6af7116aaa_n.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53679086865_d8c550b476_n.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53644988127_02436caaba_n.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53644988117_ebc02e608e_n.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53646320195_987260dc72_n.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53645859161_01c4307df5_n.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53646201819_082794b25d_n.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53646320170_60115b8acd_n.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53646201809_eec7e7c9e6_n.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53646201814_866e494dc6_n.jpg</t>
+  </si>
+  <si>
+    <t>Lic. Cloris Mayo Flores</t>
+  </si>
+  <si>
+    <t>Lic. Itzel Amairani Calderón Hernández</t>
+  </si>
+  <si>
+    <t>Lic. Karina Chimal Cagal</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53657536462_e76aac2879_z.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54101774192_3f28b84674_m.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54102897683_14bafd800f_m.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53646320145_549375c46a_n.jpg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1754,8 +1933,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1839,6 +2033,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -1890,95 +2090,95 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1989,8 +2189,39 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
@@ -2005,6 +2236,208 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9363425-FBA7-4DD4-9662-327EEC5260AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17175480" y="594360"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ED48402-D286-4848-B305-C8874ABB0279}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17175480" y="594360"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A6F1801-8C8F-4596-91CE-7478666C80DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17175480" y="594360"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6B58320-A53D-41E4-A943-FEB9ED400E34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14493240" y="594360"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2272,371 +2705,370 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:J7"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="41.109375" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
+    <col min="8" max="8" width="32.109375" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16">
         <v>30123</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="17">
         <v>22.058416690000001</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="17">
         <v>-98.178319950000002</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19">
         <v>30189</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="22">
         <v>20.945768510000001</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="22">
         <v>-97.375405610000001</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21">
         <v>30131</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="22">
         <v>20.523823449999998</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="22">
         <v>-97.456297969999994</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
+    <row r="5" spans="1:10" s="2" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19">
         <v>30102</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="22">
         <v>20.062378840000001</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="22">
         <v>-97.051848710000002</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+    <row r="6" spans="1:10" s="2" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19">
         <v>30087</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="22">
         <v>19.536296610000001</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="22">
         <v>-96.931319419999994</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="18"/>
-    </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:10" s="2" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19">
         <v>30028</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="22">
         <v>19.15813297</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="22">
         <v>-96.108097420000007</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
+      <c r="J7" s="17"/>
+    </row>
+    <row r="8" spans="1:10" s="2" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19">
         <v>30044</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="22">
         <v>18.89547816</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="22">
         <v>-96.934196180000001</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
+    <row r="9" spans="1:10" s="2" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21">
         <v>30140</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="22">
         <v>18.444617969999999</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="22">
         <v>-95.215814640000005</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
+    <row r="10" spans="1:10" s="2" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21">
         <v>30045</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>481</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="22">
         <v>18.364449799999999</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="22">
         <v>-95.796132290000003</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+    <row r="11" spans="1:10" s="2" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19">
         <v>30003</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>482</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="22">
         <v>17.95495258</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="22">
         <v>-94.908904770000007</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
+    <row r="12" spans="1:10" s="2" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19">
         <v>30039</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="22">
         <v>18.153351529999998</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="22">
         <v>-94.430093429999999</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="17" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2647,6 +3079,735 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66511D0-5A4C-4B66-A868-937C3D3DB820}">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="11.5546875" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="47">
+        <v>30123</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>494</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>484</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>496</v>
+      </c>
+      <c r="G2" s="50">
+        <v>22.058416690000001</v>
+      </c>
+      <c r="H2" s="50">
+        <v>-98.178319950000002</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="47">
+        <v>30189</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>498</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>497</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>485</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>499</v>
+      </c>
+      <c r="G3" s="51">
+        <v>20.945768510000001</v>
+      </c>
+      <c r="H3" s="51">
+        <v>-97.375405610000001</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="47">
+        <v>30131</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>501</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>500</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>486</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>502</v>
+      </c>
+      <c r="G4" s="51">
+        <v>20.523823449999998</v>
+      </c>
+      <c r="H4" s="51">
+        <v>-97.456297969999994</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="47">
+        <v>30102</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>504</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>503</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>487</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="G5" s="51">
+        <v>20.062378840000001</v>
+      </c>
+      <c r="H5" s="51">
+        <v>-97.051848710000002</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="47">
+        <v>30087</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>507</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>506</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>488</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>508</v>
+      </c>
+      <c r="G6" s="51">
+        <v>19.536296610000001</v>
+      </c>
+      <c r="H6" s="51">
+        <v>-96.931319419999994</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="47">
+        <v>30028</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>510</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>509</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>489</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>511</v>
+      </c>
+      <c r="G7" s="51">
+        <v>19.15813297</v>
+      </c>
+      <c r="H7" s="51">
+        <v>-96.108097420000007</v>
+      </c>
+      <c r="I7" s="49" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="47">
+        <v>30044</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>513</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>512</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>490</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>514</v>
+      </c>
+      <c r="G8" s="51">
+        <v>18.89547816</v>
+      </c>
+      <c r="H8" s="51">
+        <v>-96.934196180000001</v>
+      </c>
+      <c r="I8" s="49" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="47">
+        <v>30141</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>516</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>379</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>515</v>
+      </c>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47" t="s">
+        <v>517</v>
+      </c>
+      <c r="G9" s="51">
+        <v>18.444617969999999</v>
+      </c>
+      <c r="H9" s="51">
+        <v>-95.215814640000005</v>
+      </c>
+      <c r="I9" s="52" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="47">
+        <v>30045</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>519</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>518</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>491</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>520</v>
+      </c>
+      <c r="G10" s="51">
+        <v>18.364449799999999</v>
+      </c>
+      <c r="H10" s="51">
+        <v>-95.796132290000003</v>
+      </c>
+      <c r="I10" s="49" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="47">
+        <v>30003</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>522</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>521</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>492</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>523</v>
+      </c>
+      <c r="G11" s="51">
+        <v>17.95495258</v>
+      </c>
+      <c r="H11" s="51">
+        <v>-94.908904770000007</v>
+      </c>
+      <c r="I11" s="49" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="47">
+        <v>30039</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>525</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>524</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>493</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>526</v>
+      </c>
+      <c r="G12" s="51">
+        <v>18.153351529999998</v>
+      </c>
+      <c r="H12" s="51">
+        <v>-94.430093429999999</v>
+      </c>
+      <c r="I12" s="49" t="s">
+        <v>537</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B24F0D6-4F01-4C49-9F60-8464CC820E9E}">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="47">
+        <v>30123</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>494</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>538</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>496</v>
+      </c>
+      <c r="G2" s="50">
+        <v>22.058416690000001</v>
+      </c>
+      <c r="H2" s="50">
+        <v>-98.178319950000002</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="47">
+        <v>30189</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>498</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>497</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>539</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>499</v>
+      </c>
+      <c r="G3" s="51">
+        <v>20.945768510000001</v>
+      </c>
+      <c r="H3" s="51">
+        <v>-97.375405610000001</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="47">
+        <v>30131</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>501</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>500</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>486</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>502</v>
+      </c>
+      <c r="G4" s="51">
+        <v>20.523823449999998</v>
+      </c>
+      <c r="H4" s="51">
+        <v>-97.456297969999994</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="47">
+        <v>30102</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>504</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>503</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>487</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="G5" s="51">
+        <v>20.062378840000001</v>
+      </c>
+      <c r="H5" s="51">
+        <v>-97.051848710000002</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="47">
+        <v>30087</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>507</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>506</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>488</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>508</v>
+      </c>
+      <c r="G6" s="51">
+        <v>19.536296610000001</v>
+      </c>
+      <c r="H6" s="51">
+        <v>-96.931319419999994</v>
+      </c>
+      <c r="I6" s="52" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="47">
+        <v>30028</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>510</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>509</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>489</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>511</v>
+      </c>
+      <c r="G7" s="51">
+        <v>19.15813297</v>
+      </c>
+      <c r="H7" s="51">
+        <v>-96.108097420000007</v>
+      </c>
+      <c r="I7" s="49" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="47">
+        <v>30044</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>513</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>512</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>490</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>514</v>
+      </c>
+      <c r="G8" s="51">
+        <v>18.89547816</v>
+      </c>
+      <c r="H8" s="51">
+        <v>-96.934196180000001</v>
+      </c>
+      <c r="I8" s="49" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="47">
+        <v>30141</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>516</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>379</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>515</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="F9" s="47" t="s">
+        <v>517</v>
+      </c>
+      <c r="G9" s="51">
+        <v>18.444617969999999</v>
+      </c>
+      <c r="H9" s="51">
+        <v>-95.215814640000005</v>
+      </c>
+      <c r="I9" s="49" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="47">
+        <v>30045</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>519</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>518</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>491</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>520</v>
+      </c>
+      <c r="G10" s="51">
+        <v>18.364449799999999</v>
+      </c>
+      <c r="H10" s="51">
+        <v>-95.796132290000003</v>
+      </c>
+      <c r="I10" s="49" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="47">
+        <v>30003</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>522</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>521</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>492</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>523</v>
+      </c>
+      <c r="G11" s="51">
+        <v>17.95495258</v>
+      </c>
+      <c r="H11" s="51">
+        <v>-94.908904770000007</v>
+      </c>
+      <c r="I11" s="49" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="47">
+        <v>30039</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>525</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>524</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>493</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>526</v>
+      </c>
+      <c r="G12" s="51">
+        <v>18.153351529999998</v>
+      </c>
+      <c r="H12" s="51">
+        <v>-94.430093429999999</v>
+      </c>
+      <c r="I12" s="49" t="s">
+        <v>537</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E77EEE01-C550-4191-B1CF-6782A92F28C6}">
   <dimension ref="A1:H203"/>
   <sheetViews>
@@ -2654,3460 +3815,3458 @@
       <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="1"/>
-    <col min="3" max="3" width="41.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="41.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>462</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="40" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="41">
         <v>13</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="42">
+      <c r="B3" s="41">
         <v>35</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E3" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="41">
         <v>55</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E4" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="41">
         <v>56</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E5" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="41">
         <v>60</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E6" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="41">
         <v>63</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E7" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="42">
+      <c r="B8" s="41">
         <v>78</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E8" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B9" s="41">
         <v>121</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E9" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="42">
+      <c r="B10" s="41">
         <v>123</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E10" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="42">
+      <c r="B11" s="41">
         <v>129</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E11" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="42">
+      <c r="B12" s="41">
         <v>133</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E12" t="s">
         <v>463</v>
       </c>
-      <c r="H12" s="43"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="H12" s="42"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="42">
+      <c r="B13" s="41">
         <v>150</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E13" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="42">
+      <c r="B14" s="41">
         <v>152</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E14" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="42">
+      <c r="B15" s="41">
         <v>153</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E15" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="42">
+      <c r="B16" s="41">
         <v>154</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E16" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="42">
+      <c r="B17" s="41">
         <v>155</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E17" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="42">
+      <c r="B18" s="41">
         <v>161</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E18" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="42">
+      <c r="B19" s="41">
         <v>205</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E19" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="42">
+      <c r="B20" s="41">
         <v>27</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E20" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="B21" s="42">
+      <c r="B21" s="41">
         <v>34</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E21" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="42">
+      <c r="B22" s="41">
         <v>58</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E22" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="B23" s="42">
+      <c r="B23" s="41">
         <v>72</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E23" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="42">
+      <c r="B24" s="41">
         <v>76</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E24" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="B25" s="42">
+      <c r="B25" s="41">
         <v>83</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E25" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="B26" s="42">
+      <c r="B26" s="41">
         <v>151</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E26" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B27" s="42">
+      <c r="B27" s="41">
         <v>160</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E27" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="42">
+      <c r="B28" s="41">
         <v>167</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E28" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="B29" s="42">
+      <c r="B29" s="41">
         <v>170</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E29" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="42">
+      <c r="B30" s="41">
         <v>180</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E30" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B31" s="42">
+      <c r="B31" s="41">
         <v>189</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E31" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="B32" s="42">
+      <c r="B32" s="41">
         <v>198</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E32" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="B33" s="42">
+      <c r="B33" s="41">
         <v>202</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E33" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="24" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="B34" s="42">
+      <c r="B34" s="41">
         <v>33</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="20" t="s">
         <v>35</v>
       </c>
       <c r="E34" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="24" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="B35" s="42">
+      <c r="B35" s="41">
         <v>37</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="20" t="s">
         <v>35</v>
       </c>
       <c r="E35" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="B36" s="42">
+      <c r="B36" s="41">
         <v>40</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="20" t="s">
         <v>35</v>
       </c>
       <c r="E36" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="B37" s="42">
+      <c r="B37" s="41">
         <v>50</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="20" t="s">
         <v>35</v>
       </c>
       <c r="E37" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="B38" s="42">
+      <c r="B38" s="41">
         <v>51</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="D38" s="20" t="s">
         <v>35</v>
       </c>
       <c r="E38" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="24" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="B39" s="42">
+      <c r="B39" s="41">
         <v>64</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="20" t="s">
         <v>35</v>
       </c>
       <c r="E39" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="24" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="B40" s="42">
+      <c r="B40" s="41">
         <v>66</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C40" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="D40" s="20" t="s">
         <v>35</v>
       </c>
       <c r="E40" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="24" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="B41" s="42">
+      <c r="B41" s="41">
         <v>67</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="D41" s="20" t="s">
         <v>35</v>
       </c>
       <c r="E41" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B42" s="42">
+      <c r="B42" s="41">
         <v>69</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D42" s="20" t="s">
         <v>35</v>
       </c>
       <c r="E42" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="24" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="B43" s="42">
+      <c r="B43" s="41">
         <v>103</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="D43" s="21" t="s">
+      <c r="D43" s="20" t="s">
         <v>35</v>
       </c>
       <c r="E43" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="24" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="B44" s="42">
+      <c r="B44" s="41">
         <v>124</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="20" t="s">
         <v>35</v>
       </c>
       <c r="E44" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="24" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="B45" s="42">
+      <c r="B45" s="41">
         <v>131</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="C45" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="D45" s="21" t="s">
+      <c r="D45" s="20" t="s">
         <v>35</v>
       </c>
       <c r="E45" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="24" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="B46" s="42">
+      <c r="B46" s="41">
         <v>157</v>
       </c>
-      <c r="C46" s="29" t="s">
+      <c r="C46" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="D46" s="21" t="s">
+      <c r="D46" s="20" t="s">
         <v>35</v>
       </c>
       <c r="E46" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="B47" s="42">
+      <c r="B47" s="41">
         <v>158</v>
       </c>
-      <c r="C47" s="29" t="s">
+      <c r="C47" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="D47" s="21" t="s">
+      <c r="D47" s="20" t="s">
         <v>35</v>
       </c>
       <c r="E47" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="B48" s="42">
+      <c r="B48" s="41">
         <v>175</v>
       </c>
-      <c r="C48" s="29" t="s">
+      <c r="C48" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="D48" s="21" t="s">
+      <c r="D48" s="20" t="s">
         <v>35</v>
       </c>
       <c r="E48" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="B49" s="42">
+      <c r="B49" s="41">
         <v>203</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="D49" s="21" t="s">
+      <c r="D49" s="20" t="s">
         <v>35</v>
       </c>
       <c r="E49" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="24" t="s">
+    <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="B50" s="42">
+      <c r="B50" s="41">
         <v>42</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="D50" s="21" t="s">
+      <c r="D50" s="20" t="s">
         <v>28</v>
       </c>
       <c r="E50" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="24" t="s">
+    <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B51" s="42">
+      <c r="B51" s="41">
         <v>95</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="D51" s="21" t="s">
+      <c r="D51" s="20" t="s">
         <v>28</v>
       </c>
       <c r="E51" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
+    <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="B52" s="42">
+      <c r="B52" s="41">
         <v>102</v>
       </c>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D52" s="21" t="s">
+      <c r="D52" s="20" t="s">
         <v>28</v>
       </c>
       <c r="E52" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="24" t="s">
+    <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="B53" s="42">
+      <c r="B53" s="41">
         <v>109</v>
       </c>
-      <c r="C53" s="30" t="s">
+      <c r="C53" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="D53" s="21" t="s">
+      <c r="D53" s="20" t="s">
         <v>28</v>
       </c>
       <c r="E53" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="24" t="s">
+    <row r="54" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="B54" s="42">
+      <c r="B54" s="41">
         <v>114</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C54" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="D54" s="21" t="s">
+      <c r="D54" s="20" t="s">
         <v>28</v>
       </c>
       <c r="E54" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="24" t="s">
+    <row r="55" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="B55" s="42">
+      <c r="B55" s="41">
         <v>163</v>
       </c>
-      <c r="C55" s="30" t="s">
+      <c r="C55" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="D55" s="21" t="s">
+      <c r="D55" s="20" t="s">
         <v>28</v>
       </c>
       <c r="E55" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="24" t="s">
+    <row r="56" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="B56" s="42">
+      <c r="B56" s="41">
         <v>183</v>
       </c>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="D56" s="21" t="s">
+      <c r="D56" s="20" t="s">
         <v>28</v>
       </c>
       <c r="E56" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="24" t="s">
+    <row r="57" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="B57" s="42">
+      <c r="B57" s="41">
         <v>192</v>
       </c>
-      <c r="C57" s="30" t="s">
+      <c r="C57" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="D57" s="21" t="s">
+      <c r="D57" s="20" t="s">
         <v>28</v>
       </c>
       <c r="E57" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="24" t="s">
+    <row r="58" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="B58" s="42">
+      <c r="B58" s="41">
         <v>197</v>
       </c>
-      <c r="C58" s="30" t="s">
+      <c r="C58" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="D58" s="21" t="s">
+      <c r="D58" s="20" t="s">
         <v>28</v>
       </c>
       <c r="E58" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="24" t="s">
+    <row r="59" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="B59" s="42">
+      <c r="B59" s="41">
         <v>211</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="C59" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="D59" s="21" t="s">
+      <c r="D59" s="20" t="s">
         <v>28</v>
       </c>
       <c r="E59" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="26" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="B60" s="42">
+      <c r="B60" s="41">
         <v>1</v>
       </c>
-      <c r="C60" s="31" t="s">
+      <c r="C60" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="D60" s="21" t="s">
+      <c r="D60" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E60" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="32" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="B61" s="42">
+      <c r="B61" s="41">
         <v>2</v>
       </c>
-      <c r="C61" s="33" t="s">
+      <c r="C61" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="D61" s="21" t="s">
+      <c r="D61" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E61" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="24" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="B62" s="42">
+      <c r="B62" s="41">
         <v>4</v>
       </c>
-      <c r="C62" s="31" t="s">
+      <c r="C62" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="D62" s="21" t="s">
+      <c r="D62" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E62" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="24" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="B63" s="42">
+      <c r="B63" s="41">
         <v>9</v>
       </c>
-      <c r="C63" s="31" t="s">
+      <c r="C63" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="D63" s="21" t="s">
+      <c r="D63" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E63" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="24" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="B64" s="42">
+      <c r="B64" s="41">
         <v>10</v>
       </c>
-      <c r="C64" s="31" t="s">
+      <c r="C64" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="D64" s="21" t="s">
+      <c r="D64" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E64" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="24" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="B65" s="42">
+      <c r="B65" s="41">
         <v>17</v>
       </c>
-      <c r="C65" s="31" t="s">
+      <c r="C65" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="D65" s="21" t="s">
+      <c r="D65" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E65" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="24" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="B66" s="42">
+      <c r="B66" s="41">
         <v>23</v>
       </c>
-      <c r="C66" s="31" t="s">
+      <c r="C66" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="D66" s="21" t="s">
+      <c r="D66" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E66" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="24" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="B67" s="42">
+      <c r="B67" s="41">
         <v>25</v>
       </c>
-      <c r="C67" s="31" t="s">
+      <c r="C67" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="D67" s="21" t="s">
+      <c r="D67" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E67" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="24" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="B68" s="42">
+      <c r="B68" s="41">
         <v>26</v>
       </c>
-      <c r="C68" s="31" t="s">
+      <c r="C68" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="D68" s="21" t="s">
+      <c r="D68" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E68" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="24" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="B69" s="42">
+      <c r="B69" s="41">
         <v>36</v>
       </c>
-      <c r="C69" s="31" t="s">
+      <c r="C69" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="D69" s="21" t="s">
+      <c r="D69" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E69" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="24" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="B70" s="42">
+      <c r="B70" s="41">
         <v>38</v>
       </c>
-      <c r="C70" s="31" t="s">
+      <c r="C70" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="D70" s="21" t="s">
+      <c r="D70" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E70" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="24" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="B71" s="42">
+      <c r="B71" s="41">
         <v>46</v>
       </c>
-      <c r="C71" s="31" t="s">
+      <c r="C71" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="D71" s="21" t="s">
+      <c r="D71" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E71" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="24" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="B72" s="42">
+      <c r="B72" s="41">
         <v>57</v>
       </c>
-      <c r="C72" s="31" t="s">
+      <c r="C72" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="D72" s="21" t="s">
+      <c r="D72" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E72" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="24" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="B73" s="42">
+      <c r="B73" s="41">
         <v>65</v>
       </c>
-      <c r="C73" s="31" t="s">
+      <c r="C73" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="D73" s="21" t="s">
+      <c r="D73" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E73" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="24" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="B74" s="42">
+      <c r="B74" s="41">
         <v>79</v>
       </c>
-      <c r="C74" s="31" t="s">
+      <c r="C74" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="D74" s="21" t="s">
+      <c r="D74" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E74" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="24" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="B75" s="42">
+      <c r="B75" s="41">
         <v>86</v>
       </c>
-      <c r="C75" s="31" t="s">
+      <c r="C75" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="D75" s="21" t="s">
+      <c r="D75" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E75" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="24" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="B76" s="42">
+      <c r="B76" s="41">
         <v>87</v>
       </c>
-      <c r="C76" s="31" t="s">
+      <c r="C76" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D76" s="21" t="s">
+      <c r="D76" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E76" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="24" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="B77" s="42">
+      <c r="B77" s="41">
         <v>88</v>
       </c>
-      <c r="C77" s="31" t="s">
+      <c r="C77" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="D77" s="21" t="s">
+      <c r="D77" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E77" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="24" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="B78" s="42">
+      <c r="B78" s="41">
         <v>92</v>
       </c>
-      <c r="C78" s="31" t="s">
+      <c r="C78" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="D78" s="21" t="s">
+      <c r="D78" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E78" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="24" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="B79" s="42">
+      <c r="B79" s="41">
         <v>93</v>
       </c>
-      <c r="C79" s="31" t="s">
+      <c r="C79" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="D79" s="21" t="s">
+      <c r="D79" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E79" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="24" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="B80" s="42">
+      <c r="B80" s="41">
         <v>96</v>
       </c>
-      <c r="C80" s="31" t="s">
+      <c r="C80" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="D80" s="21" t="s">
+      <c r="D80" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E80" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="24" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="B81" s="42">
+      <c r="B81" s="41">
         <v>106</v>
       </c>
-      <c r="C81" s="31" t="s">
+      <c r="C81" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="D81" s="21" t="s">
+      <c r="D81" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E81" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="24" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="B82" s="42">
+      <c r="B82" s="41">
         <v>107</v>
       </c>
-      <c r="C82" s="31" t="s">
+      <c r="C82" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="D82" s="21" t="s">
+      <c r="D82" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E82" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="24" t="s">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="B83" s="42">
+      <c r="B83" s="41">
         <v>112</v>
       </c>
-      <c r="C83" s="31" t="s">
+      <c r="C83" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="D83" s="21" t="s">
+      <c r="D83" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E83" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="24" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="B84" s="42">
+      <c r="B84" s="41">
         <v>128</v>
       </c>
-      <c r="C84" s="31" t="s">
+      <c r="C84" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="D84" s="21" t="s">
+      <c r="D84" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E84" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="24" t="s">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="B85" s="42">
+      <c r="B85" s="41">
         <v>132</v>
       </c>
-      <c r="C85" s="31" t="s">
+      <c r="C85" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="D85" s="21" t="s">
+      <c r="D85" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E85" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="24" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="B86" s="42">
+      <c r="B86" s="41">
         <v>136</v>
       </c>
-      <c r="C86" s="31" t="s">
+      <c r="C86" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="D86" s="21" t="s">
+      <c r="D86" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E86" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="24" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="B87" s="42">
+      <c r="B87" s="41">
         <v>156</v>
       </c>
-      <c r="C87" s="31" t="s">
+      <c r="C87" s="30" t="s">
         <v>461</v>
       </c>
-      <c r="D87" s="21" t="s">
+      <c r="D87" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E87" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="24" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="B88" s="42">
+      <c r="B88" s="41">
         <v>164</v>
       </c>
-      <c r="C88" s="31" t="s">
+      <c r="C88" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="D88" s="21" t="s">
+      <c r="D88" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E88" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="24" t="s">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="B89" s="42">
+      <c r="B89" s="41">
         <v>166</v>
       </c>
-      <c r="C89" s="31" t="s">
+      <c r="C89" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="D89" s="21" t="s">
+      <c r="D89" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E89" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="24" t="s">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="B90" s="42">
+      <c r="B90" s="41">
         <v>177</v>
       </c>
-      <c r="C90" s="31" t="s">
+      <c r="C90" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="D90" s="21" t="s">
+      <c r="D90" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E90" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="24" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="B91" s="42">
+      <c r="B91" s="41">
         <v>182</v>
       </c>
-      <c r="C91" s="31" t="s">
+      <c r="C91" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="D91" s="21" t="s">
+      <c r="D91" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E91" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="24" t="s">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B92" s="42">
+      <c r="B92" s="41">
         <v>187</v>
       </c>
-      <c r="C92" s="31" t="s">
+      <c r="C92" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="D92" s="21" t="s">
+      <c r="D92" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E92" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="24" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="B93" s="42">
+      <c r="B93" s="41">
         <v>194</v>
       </c>
-      <c r="C93" s="31" t="s">
+      <c r="C93" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="D93" s="21" t="s">
+      <c r="D93" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E93" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="24" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="B94" s="42">
+      <c r="B94" s="41">
         <v>11</v>
       </c>
-      <c r="C94" s="34" t="s">
+      <c r="C94" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="D94" s="21" t="s">
+      <c r="D94" s="20" t="s">
         <v>20</v>
       </c>
       <c r="E94" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="24" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="B95" s="42">
+      <c r="B95" s="41">
         <v>16</v>
       </c>
-      <c r="C95" s="34" t="s">
+      <c r="C95" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="D95" s="21" t="s">
+      <c r="D95" s="20" t="s">
         <v>20</v>
       </c>
       <c r="E95" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="24" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="B96" s="42">
+      <c r="B96" s="41">
         <v>28</v>
       </c>
-      <c r="C96" s="34" t="s">
+      <c r="C96" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D96" s="21" t="s">
+      <c r="D96" s="20" t="s">
         <v>20</v>
       </c>
       <c r="E96" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="24" t="s">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="B97" s="42">
+      <c r="B97" s="41">
         <v>49</v>
       </c>
-      <c r="C97" s="34" t="s">
+      <c r="C97" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="D97" s="21" t="s">
+      <c r="D97" s="20" t="s">
         <v>20</v>
       </c>
       <c r="E97" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="24" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="B98" s="42">
+      <c r="B98" s="41">
         <v>75</v>
       </c>
-      <c r="C98" s="34" t="s">
+      <c r="C98" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="D98" s="21" t="s">
+      <c r="D98" s="20" t="s">
         <v>20</v>
       </c>
       <c r="E98" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="24" t="s">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="B99" s="42">
+      <c r="B99" s="41">
         <v>90</v>
       </c>
-      <c r="C99" s="34" t="s">
+      <c r="C99" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="D99" s="21" t="s">
+      <c r="D99" s="20" t="s">
         <v>20</v>
       </c>
       <c r="E99" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="24" t="s">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="B100" s="42">
+      <c r="B100" s="41">
         <v>100</v>
       </c>
-      <c r="C100" s="34" t="s">
+      <c r="C100" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="D100" s="21" t="s">
+      <c r="D100" s="20" t="s">
         <v>20</v>
       </c>
       <c r="E100" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="24" t="s">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="B101" s="42">
+      <c r="B101" s="41">
         <v>105</v>
       </c>
-      <c r="C101" s="34" t="s">
+      <c r="C101" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="D101" s="21" t="s">
+      <c r="D101" s="20" t="s">
         <v>20</v>
       </c>
       <c r="E101" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="24" t="s">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="B102" s="42">
+      <c r="B102" s="41">
         <v>126</v>
       </c>
-      <c r="C102" s="34" t="s">
+      <c r="C102" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="D102" s="21" t="s">
+      <c r="D102" s="20" t="s">
         <v>20</v>
       </c>
       <c r="E102" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="24" t="s">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="B103" s="42">
+      <c r="B103" s="41">
         <v>134</v>
       </c>
-      <c r="C103" s="34" t="s">
+      <c r="C103" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="D103" s="21" t="s">
+      <c r="D103" s="20" t="s">
         <v>20</v>
       </c>
       <c r="E103" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="24" t="s">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="B104" s="42">
+      <c r="B104" s="41">
         <v>148</v>
       </c>
-      <c r="C104" s="34" t="s">
+      <c r="C104" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="D104" s="21" t="s">
+      <c r="D104" s="20" t="s">
         <v>20</v>
       </c>
       <c r="E104" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="24" t="s">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="B105" s="42">
+      <c r="B105" s="41">
         <v>181</v>
       </c>
-      <c r="C105" s="34" t="s">
+      <c r="C105" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="D105" s="21" t="s">
+      <c r="D105" s="20" t="s">
         <v>20</v>
       </c>
       <c r="E105" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="24" t="s">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="B106" s="42">
+      <c r="B106" s="41">
         <v>191</v>
       </c>
-      <c r="C106" s="34" t="s">
+      <c r="C106" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="D106" s="21" t="s">
+      <c r="D106" s="20" t="s">
         <v>20</v>
       </c>
       <c r="E106" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="24" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="B107" s="42">
+      <c r="B107" s="41">
         <v>193</v>
       </c>
-      <c r="C107" s="34" t="s">
+      <c r="C107" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="D107" s="21" t="s">
+      <c r="D107" s="20" t="s">
         <v>20</v>
       </c>
       <c r="E107" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="24" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="B108" s="42">
+      <c r="B108" s="41">
         <v>6</v>
       </c>
-      <c r="C108" s="35" t="s">
+      <c r="C108" s="34" t="s">
         <v>272</v>
       </c>
-      <c r="D108" s="21" t="s">
+      <c r="D108" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E108" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="24" t="s">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="B109" s="42">
+      <c r="B109" s="41">
         <v>7</v>
       </c>
-      <c r="C109" s="35" t="s">
+      <c r="C109" s="34" t="s">
         <v>274</v>
       </c>
-      <c r="D109" s="21" t="s">
+      <c r="D109" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E109" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="24" t="s">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="B110" s="42">
+      <c r="B110" s="41">
         <v>8</v>
       </c>
-      <c r="C110" s="35" t="s">
+      <c r="C110" s="34" t="s">
         <v>276</v>
       </c>
-      <c r="D110" s="21" t="s">
+      <c r="D110" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E110" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="24" t="s">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="B111" s="42">
+      <c r="B111" s="41">
         <v>14</v>
       </c>
-      <c r="C111" s="35" t="s">
+      <c r="C111" s="34" t="s">
         <v>278</v>
       </c>
-      <c r="D111" s="21" t="s">
+      <c r="D111" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E111" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="24" t="s">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="B112" s="42">
+      <c r="B112" s="41">
         <v>18</v>
       </c>
-      <c r="C112" s="35" t="s">
+      <c r="C112" s="34" t="s">
         <v>280</v>
       </c>
-      <c r="D112" s="21" t="s">
+      <c r="D112" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E112" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="24" t="s">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="B113" s="42">
+      <c r="B113" s="41">
         <v>19</v>
       </c>
-      <c r="C113" s="35" t="s">
+      <c r="C113" s="34" t="s">
         <v>282</v>
       </c>
-      <c r="D113" s="21" t="s">
+      <c r="D113" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E113" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="24" t="s">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="B114" s="42">
+      <c r="B114" s="41">
         <v>20</v>
       </c>
-      <c r="C114" s="35" t="s">
+      <c r="C114" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="D114" s="21" t="s">
+      <c r="D114" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E114" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="24" t="s">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="B115" s="42">
+      <c r="B115" s="41">
         <v>21</v>
       </c>
-      <c r="C115" s="35" t="s">
+      <c r="C115" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="D115" s="21" t="s">
+      <c r="D115" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E115" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="24" t="s">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="B116" s="42">
+      <c r="B116" s="41">
         <v>22</v>
       </c>
-      <c r="C116" s="35" t="s">
+      <c r="C116" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="D116" s="21" t="s">
+      <c r="D116" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E116" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="24" t="s">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="B117" s="42">
+      <c r="B117" s="41">
         <v>24</v>
       </c>
-      <c r="C117" s="35" t="s">
+      <c r="C117" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="D117" s="21" t="s">
+      <c r="D117" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E117" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="24" t="s">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="B118" s="42">
+      <c r="B118" s="41">
         <v>29</v>
       </c>
-      <c r="C118" s="35" t="s">
+      <c r="C118" s="34" t="s">
         <v>292</v>
       </c>
-      <c r="D118" s="21" t="s">
+      <c r="D118" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E118" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="24" t="s">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="B119" s="42">
+      <c r="B119" s="41">
         <v>30</v>
       </c>
-      <c r="C119" s="35" t="s">
+      <c r="C119" s="34" t="s">
         <v>294</v>
       </c>
-      <c r="D119" s="21" t="s">
+      <c r="D119" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E119" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="24" t="s">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="B120" s="42">
+      <c r="B120" s="41">
         <v>31</v>
       </c>
-      <c r="C120" s="35" t="s">
+      <c r="C120" s="34" t="s">
         <v>296</v>
       </c>
-      <c r="D120" s="21" t="s">
+      <c r="D120" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E120" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="24" t="s">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="B121" s="42">
+      <c r="B121" s="41">
         <v>41</v>
       </c>
-      <c r="C121" s="35" t="s">
+      <c r="C121" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="D121" s="21" t="s">
+      <c r="D121" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E121" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="24" t="s">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="B122" s="42">
+      <c r="B122" s="41">
         <v>43</v>
       </c>
-      <c r="C122" s="35" t="s">
+      <c r="C122" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="D122" s="21" t="s">
+      <c r="D122" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E122" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="24" t="s">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="B123" s="42">
+      <c r="B123" s="41">
         <v>44</v>
       </c>
-      <c r="C123" s="35" t="s">
+      <c r="C123" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D123" s="21" t="s">
+      <c r="D123" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E123" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="24" t="s">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="B124" s="42">
+      <c r="B124" s="41">
         <v>47</v>
       </c>
-      <c r="C124" s="35" t="s">
+      <c r="C124" s="34" t="s">
         <v>303</v>
       </c>
-      <c r="D124" s="21" t="s">
+      <c r="D124" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E124" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="24" t="s">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="B125" s="42">
+      <c r="B125" s="41">
         <v>52</v>
       </c>
-      <c r="C125" s="35" t="s">
+      <c r="C125" s="34" t="s">
         <v>305</v>
       </c>
-      <c r="D125" s="21" t="s">
+      <c r="D125" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E125" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="24" t="s">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="B126" s="42">
+      <c r="B126" s="41">
         <v>53</v>
       </c>
-      <c r="C126" s="35" t="s">
+      <c r="C126" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="D126" s="21" t="s">
+      <c r="D126" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E126" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="24" t="s">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="B127" s="42">
+      <c r="B127" s="41">
         <v>62</v>
       </c>
-      <c r="C127" s="35" t="s">
+      <c r="C127" s="34" t="s">
         <v>309</v>
       </c>
-      <c r="D127" s="21" t="s">
+      <c r="D127" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E127" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="24" t="s">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="B128" s="42">
+      <c r="B128" s="41">
         <v>68</v>
       </c>
-      <c r="C128" s="35" t="s">
+      <c r="C128" s="34" t="s">
         <v>311</v>
       </c>
-      <c r="D128" s="21" t="s">
+      <c r="D128" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E128" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="24" t="s">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="B129" s="42">
+      <c r="B129" s="41">
         <v>71</v>
       </c>
-      <c r="C129" s="35" t="s">
+      <c r="C129" s="34" t="s">
         <v>313</v>
       </c>
-      <c r="D129" s="21" t="s">
+      <c r="D129" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E129" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="24" t="s">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="B130" s="42">
+      <c r="B130" s="41">
         <v>74</v>
       </c>
-      <c r="C130" s="35" t="s">
+      <c r="C130" s="34" t="s">
         <v>315</v>
       </c>
-      <c r="D130" s="21" t="s">
+      <c r="D130" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E130" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="24" t="s">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="B131" s="42">
+      <c r="B131" s="41">
         <v>80</v>
       </c>
-      <c r="C131" s="35" t="s">
+      <c r="C131" s="34" t="s">
         <v>317</v>
       </c>
-      <c r="D131" s="21" t="s">
+      <c r="D131" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E131" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="24" t="s">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="B132" s="42">
+      <c r="B132" s="41">
         <v>81</v>
       </c>
-      <c r="C132" s="35" t="s">
+      <c r="C132" s="34" t="s">
         <v>319</v>
       </c>
-      <c r="D132" s="21" t="s">
+      <c r="D132" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E132" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="24" t="s">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="23" t="s">
         <v>320</v>
       </c>
-      <c r="B133" s="42">
+      <c r="B133" s="41">
         <v>85</v>
       </c>
-      <c r="C133" s="35" t="s">
+      <c r="C133" s="34" t="s">
         <v>321</v>
       </c>
-      <c r="D133" s="21" t="s">
+      <c r="D133" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E133" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="24" t="s">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="B134" s="42">
+      <c r="B134" s="41">
         <v>98</v>
       </c>
-      <c r="C134" s="35" t="s">
+      <c r="C134" s="34" t="s">
         <v>323</v>
       </c>
-      <c r="D134" s="21" t="s">
+      <c r="D134" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E134" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="24" t="s">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="B135" s="42">
+      <c r="B135" s="41">
         <v>99</v>
       </c>
-      <c r="C135" s="35" t="s">
+      <c r="C135" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="D135" s="21" t="s">
+      <c r="D135" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E135" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="24" t="s">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="B136" s="42">
+      <c r="B136" s="41">
         <v>101</v>
       </c>
-      <c r="C136" s="35" t="s">
+      <c r="C136" s="34" t="s">
         <v>327</v>
       </c>
-      <c r="D136" s="21" t="s">
+      <c r="D136" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E136" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="24" t="s">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="B137" s="42">
+      <c r="B137" s="41">
         <v>110</v>
       </c>
-      <c r="C137" s="35" t="s">
+      <c r="C137" s="34" t="s">
         <v>329</v>
       </c>
-      <c r="D137" s="21" t="s">
+      <c r="D137" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E137" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="24" t="s">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="B138" s="42">
+      <c r="B138" s="41">
         <v>113</v>
       </c>
-      <c r="C138" s="35" t="s">
+      <c r="C138" s="34" t="s">
         <v>331</v>
       </c>
-      <c r="D138" s="21" t="s">
+      <c r="D138" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E138" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="24" t="s">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="B139" s="42">
+      <c r="B139" s="41">
         <v>115</v>
       </c>
-      <c r="C139" s="35" t="s">
+      <c r="C139" s="34" t="s">
         <v>333</v>
       </c>
-      <c r="D139" s="21" t="s">
+      <c r="D139" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E139" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="24" t="s">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="23" t="s">
         <v>334</v>
       </c>
-      <c r="B140" s="42">
+      <c r="B140" s="41">
         <v>117</v>
       </c>
-      <c r="C140" s="35" t="s">
+      <c r="C140" s="34" t="s">
         <v>335</v>
       </c>
-      <c r="D140" s="21" t="s">
+      <c r="D140" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E140" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="24" t="s">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="B141" s="42">
+      <c r="B141" s="41">
         <v>118</v>
       </c>
-      <c r="C141" s="35" t="s">
+      <c r="C141" s="34" t="s">
         <v>337</v>
       </c>
-      <c r="D141" s="21" t="s">
+      <c r="D141" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E141" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="24" t="s">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="23" t="s">
         <v>338</v>
       </c>
-      <c r="B142" s="42">
+      <c r="B142" s="41">
         <v>125</v>
       </c>
-      <c r="C142" s="35" t="s">
+      <c r="C142" s="34" t="s">
         <v>339</v>
       </c>
-      <c r="D142" s="21" t="s">
+      <c r="D142" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E142" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="24" t="s">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="B143" s="42">
+      <c r="B143" s="41">
         <v>127</v>
       </c>
-      <c r="C143" s="35" t="s">
+      <c r="C143" s="34" t="s">
         <v>341</v>
       </c>
-      <c r="D143" s="21" t="s">
+      <c r="D143" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E143" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="24" t="s">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="23" t="s">
         <v>342</v>
       </c>
-      <c r="B144" s="42">
+      <c r="B144" s="41">
         <v>135</v>
       </c>
-      <c r="C144" s="35" t="s">
+      <c r="C144" s="34" t="s">
         <v>343</v>
       </c>
-      <c r="D144" s="21" t="s">
+      <c r="D144" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E144" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="24" t="s">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="23" t="s">
         <v>344</v>
       </c>
-      <c r="B145" s="42">
+      <c r="B145" s="41">
         <v>137</v>
       </c>
-      <c r="C145" s="35" t="s">
+      <c r="C145" s="34" t="s">
         <v>345</v>
       </c>
-      <c r="D145" s="21" t="s">
+      <c r="D145" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E145" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="24" t="s">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="B146" s="42">
+      <c r="B146" s="41">
         <v>138</v>
       </c>
-      <c r="C146" s="35" t="s">
+      <c r="C146" s="34" t="s">
         <v>347</v>
       </c>
-      <c r="D146" s="21" t="s">
+      <c r="D146" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E146" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="24" t="s">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="23" t="s">
         <v>348</v>
       </c>
-      <c r="B147" s="42">
+      <c r="B147" s="41">
         <v>140</v>
       </c>
-      <c r="C147" s="35" t="s">
+      <c r="C147" s="34" t="s">
         <v>349</v>
       </c>
-      <c r="D147" s="21" t="s">
+      <c r="D147" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E147" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="24" t="s">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="B148" s="42">
+      <c r="B148" s="41">
         <v>146</v>
       </c>
-      <c r="C148" s="35" t="s">
+      <c r="C148" s="34" t="s">
         <v>351</v>
       </c>
-      <c r="D148" s="21" t="s">
+      <c r="D148" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E148" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="24" t="s">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="B149" s="42">
+      <c r="B149" s="41">
         <v>147</v>
       </c>
-      <c r="C149" s="35" t="s">
+      <c r="C149" s="34" t="s">
         <v>353</v>
       </c>
-      <c r="D149" s="21" t="s">
+      <c r="D149" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E149" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="24" t="s">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="23" t="s">
         <v>354</v>
       </c>
-      <c r="B150" s="42">
+      <c r="B150" s="41">
         <v>159</v>
       </c>
-      <c r="C150" s="35" t="s">
+      <c r="C150" s="34" t="s">
         <v>355</v>
       </c>
-      <c r="D150" s="21" t="s">
+      <c r="D150" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E150" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="24" t="s">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="B151" s="42">
+      <c r="B151" s="41">
         <v>162</v>
       </c>
-      <c r="C151" s="35" t="s">
+      <c r="C151" s="34" t="s">
         <v>357</v>
       </c>
-      <c r="D151" s="21" t="s">
+      <c r="D151" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E151" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="24" t="s">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="B152" s="42">
+      <c r="B152" s="41">
         <v>165</v>
       </c>
-      <c r="C152" s="35" t="s">
+      <c r="C152" s="34" t="s">
         <v>359</v>
       </c>
-      <c r="D152" s="21" t="s">
+      <c r="D152" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E152" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="24" t="s">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="B153" s="42">
+      <c r="B153" s="41">
         <v>168</v>
       </c>
-      <c r="C153" s="35" t="s">
+      <c r="C153" s="34" t="s">
         <v>361</v>
       </c>
-      <c r="D153" s="21" t="s">
+      <c r="D153" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E153" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="24" t="s">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="23" t="s">
         <v>362</v>
       </c>
-      <c r="B154" s="42">
+      <c r="B154" s="41">
         <v>171</v>
       </c>
-      <c r="C154" s="35" t="s">
+      <c r="C154" s="34" t="s">
         <v>363</v>
       </c>
-      <c r="D154" s="21" t="s">
+      <c r="D154" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E154" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A155" s="24" t="s">
+    <row r="155" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A155" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="B155" s="42">
+      <c r="B155" s="41">
         <v>15</v>
       </c>
-      <c r="C155" s="36" t="s">
+      <c r="C155" s="35" t="s">
         <v>365</v>
       </c>
-      <c r="D155" s="21" t="s">
+      <c r="D155" s="20" t="s">
         <v>15</v>
       </c>
       <c r="E155" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A156" s="24" t="s">
+    <row r="156" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A156" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="B156" s="42">
+      <c r="B156" s="41">
         <v>32</v>
       </c>
-      <c r="C156" s="36" t="s">
+      <c r="C156" s="35" t="s">
         <v>367</v>
       </c>
-      <c r="D156" s="21" t="s">
+      <c r="D156" s="20" t="s">
         <v>15</v>
       </c>
       <c r="E156" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" s="24" t="s">
+    <row r="157" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A157" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="B157" s="42">
+      <c r="B157" s="41">
         <v>73</v>
       </c>
-      <c r="C157" s="36" t="s">
+      <c r="C157" s="35" t="s">
         <v>369</v>
       </c>
-      <c r="D157" s="21" t="s">
+      <c r="D157" s="20" t="s">
         <v>15</v>
       </c>
       <c r="E157" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A158" s="24" t="s">
+    <row r="158" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A158" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="B158" s="42">
+      <c r="B158" s="41">
         <v>77</v>
       </c>
-      <c r="C158" s="36" t="s">
+      <c r="C158" s="35" t="s">
         <v>371</v>
       </c>
-      <c r="D158" s="21" t="s">
+      <c r="D158" s="20" t="s">
         <v>15</v>
       </c>
       <c r="E158" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A159" s="24" t="s">
+    <row r="159" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A159" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="B159" s="42">
+      <c r="B159" s="41">
         <v>94</v>
       </c>
-      <c r="C159" s="36" t="s">
+      <c r="C159" s="35" t="s">
         <v>373</v>
       </c>
-      <c r="D159" s="21" t="s">
+      <c r="D159" s="20" t="s">
         <v>15</v>
       </c>
       <c r="E159" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A160" s="24" t="s">
+    <row r="160" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A160" s="23" t="s">
         <v>374</v>
       </c>
-      <c r="B160" s="42">
+      <c r="B160" s="41">
         <v>97</v>
       </c>
-      <c r="C160" s="36" t="s">
+      <c r="C160" s="35" t="s">
         <v>375</v>
       </c>
-      <c r="D160" s="21" t="s">
+      <c r="D160" s="20" t="s">
         <v>15</v>
       </c>
       <c r="E160" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A161" s="24" t="s">
+    <row r="161" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A161" s="23" t="s">
         <v>376</v>
       </c>
-      <c r="B161" s="42">
+      <c r="B161" s="41">
         <v>139</v>
       </c>
-      <c r="C161" s="36" t="s">
+      <c r="C161" s="35" t="s">
         <v>377</v>
       </c>
-      <c r="D161" s="21" t="s">
+      <c r="D161" s="20" t="s">
         <v>15</v>
       </c>
       <c r="E161" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A162" s="24" t="s">
+    <row r="162" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A162" s="23" t="s">
         <v>378</v>
       </c>
-      <c r="B162" s="42">
+      <c r="B162" s="41">
         <v>141</v>
       </c>
-      <c r="C162" s="36" t="s">
+      <c r="C162" s="35" t="s">
         <v>379</v>
       </c>
-      <c r="D162" s="21" t="s">
+      <c r="D162" s="20" t="s">
         <v>15</v>
       </c>
       <c r="E162" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A163" s="24" t="s">
+    <row r="163" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A163" s="23" t="s">
         <v>380</v>
       </c>
-      <c r="B163" s="42">
+      <c r="B163" s="41">
         <v>143</v>
       </c>
-      <c r="C163" s="36" t="s">
+      <c r="C163" s="35" t="s">
         <v>381</v>
       </c>
-      <c r="D163" s="21" t="s">
+      <c r="D163" s="20" t="s">
         <v>15</v>
       </c>
       <c r="E163" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="24" t="s">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="B164" s="42">
+      <c r="B164" s="41">
         <v>5</v>
       </c>
-      <c r="C164" s="37" t="s">
+      <c r="C164" s="36" t="s">
         <v>383</v>
       </c>
-      <c r="D164" s="21" t="s">
+      <c r="D164" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E164" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="24" t="s">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="23" t="s">
         <v>384</v>
       </c>
-      <c r="B165" s="42">
+      <c r="B165" s="41">
         <v>12</v>
       </c>
-      <c r="C165" s="37" t="s">
+      <c r="C165" s="36" t="s">
         <v>385</v>
       </c>
-      <c r="D165" s="21" t="s">
+      <c r="D165" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E165" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="24" t="s">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="23" t="s">
         <v>386</v>
       </c>
-      <c r="B166" s="42">
+      <c r="B166" s="41">
         <v>45</v>
       </c>
-      <c r="C166" s="37" t="s">
+      <c r="C166" s="36" t="s">
         <v>387</v>
       </c>
-      <c r="D166" s="21" t="s">
+      <c r="D166" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E166" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="24" t="s">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="B167" s="42">
+      <c r="B167" s="41">
         <v>54</v>
       </c>
-      <c r="C167" s="37" t="s">
+      <c r="C167" s="36" t="s">
         <v>389</v>
       </c>
-      <c r="D167" s="21" t="s">
+      <c r="D167" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E167" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="24" t="s">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="B168" s="42">
+      <c r="B168" s="41">
         <v>84</v>
       </c>
-      <c r="C168" s="37" t="s">
+      <c r="C168" s="36" t="s">
         <v>391</v>
       </c>
-      <c r="D168" s="21" t="s">
+      <c r="D168" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E168" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="24" t="s">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="B169" s="42">
+      <c r="B169" s="41">
         <v>119</v>
       </c>
-      <c r="C169" s="37" t="s">
+      <c r="C169" s="36" t="s">
         <v>393</v>
       </c>
-      <c r="D169" s="21" t="s">
+      <c r="D169" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E169" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="24" t="s">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="B170" s="42">
+      <c r="B170" s="41">
         <v>130</v>
       </c>
-      <c r="C170" s="37" t="s">
+      <c r="C170" s="36" t="s">
         <v>395</v>
       </c>
-      <c r="D170" s="21" t="s">
+      <c r="D170" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E170" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="24" t="s">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="23" t="s">
         <v>396</v>
       </c>
-      <c r="B171" s="42">
+      <c r="B171" s="41">
         <v>169</v>
       </c>
-      <c r="C171" s="37" t="s">
+      <c r="C171" s="36" t="s">
         <v>397</v>
       </c>
-      <c r="D171" s="21" t="s">
+      <c r="D171" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E171" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="24" t="s">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="B172" s="42">
+      <c r="B172" s="41">
         <v>174</v>
       </c>
-      <c r="C172" s="37" t="s">
+      <c r="C172" s="36" t="s">
         <v>399</v>
       </c>
-      <c r="D172" s="21" t="s">
+      <c r="D172" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E172" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="24" t="s">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="B173" s="42">
+      <c r="B173" s="41">
         <v>176</v>
       </c>
-      <c r="C173" s="37" t="s">
+      <c r="C173" s="36" t="s">
         <v>401</v>
       </c>
-      <c r="D173" s="21" t="s">
+      <c r="D173" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E173" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="24" t="s">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="B174" s="42">
+      <c r="B174" s="41">
         <v>178</v>
       </c>
-      <c r="C174" s="37" t="s">
+      <c r="C174" s="36" t="s">
         <v>403</v>
       </c>
-      <c r="D174" s="21" t="s">
+      <c r="D174" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E174" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="24" t="s">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="23" t="s">
         <v>404</v>
       </c>
-      <c r="B175" s="42">
+      <c r="B175" s="41">
         <v>190</v>
       </c>
-      <c r="C175" s="37" t="s">
+      <c r="C175" s="36" t="s">
         <v>405</v>
       </c>
-      <c r="D175" s="21" t="s">
+      <c r="D175" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E175" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="24" t="s">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="23" t="s">
         <v>406</v>
       </c>
-      <c r="B176" s="42">
+      <c r="B176" s="41">
         <v>207</v>
       </c>
-      <c r="C176" s="37" t="s">
+      <c r="C176" s="36" t="s">
         <v>407</v>
       </c>
-      <c r="D176" s="21" t="s">
+      <c r="D176" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E176" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="24" t="s">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="B177" s="42">
+      <c r="B177" s="41">
         <v>208</v>
       </c>
-      <c r="C177" s="37" t="s">
+      <c r="C177" s="36" t="s">
         <v>409</v>
       </c>
-      <c r="D177" s="21" t="s">
+      <c r="D177" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E177" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="24" t="s">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="23" t="s">
         <v>410</v>
       </c>
-      <c r="B178" s="42">
+      <c r="B178" s="41">
         <v>212</v>
       </c>
-      <c r="C178" s="37" t="s">
+      <c r="C178" s="36" t="s">
         <v>411</v>
       </c>
-      <c r="D178" s="21" t="s">
+      <c r="D178" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E178" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="24" t="s">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="B179" s="42">
+      <c r="B179" s="41">
         <v>3</v>
       </c>
-      <c r="C179" s="38" t="s">
+      <c r="C179" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D179" s="21" t="s">
+      <c r="D179" s="20" t="s">
         <v>7</v>
       </c>
       <c r="E179" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="24" t="s">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="B180" s="42">
+      <c r="B180" s="41">
         <v>89</v>
       </c>
-      <c r="C180" s="38" t="s">
+      <c r="C180" s="37" t="s">
         <v>414</v>
       </c>
-      <c r="D180" s="21" t="s">
+      <c r="D180" s="20" t="s">
         <v>7</v>
       </c>
       <c r="E180" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="24" t="s">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="B181" s="42">
+      <c r="B181" s="41">
         <v>91</v>
       </c>
-      <c r="C181" s="38" t="s">
+      <c r="C181" s="37" t="s">
         <v>416</v>
       </c>
-      <c r="D181" s="21" t="s">
+      <c r="D181" s="20" t="s">
         <v>7</v>
       </c>
       <c r="E181" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="24" t="s">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="B182" s="42">
+      <c r="B182" s="41">
         <v>104</v>
       </c>
-      <c r="C182" s="38" t="s">
+      <c r="C182" s="37" t="s">
         <v>418</v>
       </c>
-      <c r="D182" s="21" t="s">
+      <c r="D182" s="20" t="s">
         <v>7</v>
       </c>
       <c r="E182" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="24" t="s">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="23" t="s">
         <v>419</v>
       </c>
-      <c r="B183" s="42">
+      <c r="B183" s="41">
         <v>116</v>
       </c>
-      <c r="C183" s="38" t="s">
+      <c r="C183" s="37" t="s">
         <v>420</v>
       </c>
-      <c r="D183" s="21" t="s">
+      <c r="D183" s="20" t="s">
         <v>7</v>
       </c>
       <c r="E183" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="24" t="s">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="B184" s="42">
+      <c r="B184" s="41">
         <v>142</v>
       </c>
-      <c r="C184" s="38" t="s">
+      <c r="C184" s="37" t="s">
         <v>422</v>
       </c>
-      <c r="D184" s="21" t="s">
+      <c r="D184" s="20" t="s">
         <v>7</v>
       </c>
       <c r="E184" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="24" t="s">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="23" t="s">
         <v>423</v>
       </c>
-      <c r="B185" s="42">
+      <c r="B185" s="41">
         <v>144</v>
       </c>
-      <c r="C185" s="38" t="s">
+      <c r="C185" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="D185" s="21" t="s">
+      <c r="D185" s="20" t="s">
         <v>7</v>
       </c>
       <c r="E185" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="24" t="s">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="23" t="s">
         <v>425</v>
       </c>
-      <c r="B186" s="42">
+      <c r="B186" s="41">
         <v>145</v>
       </c>
-      <c r="C186" s="38" t="s">
+      <c r="C186" s="37" t="s">
         <v>426</v>
       </c>
-      <c r="D186" s="21" t="s">
+      <c r="D186" s="20" t="s">
         <v>7</v>
       </c>
       <c r="E186" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="24" t="s">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="23" t="s">
         <v>427</v>
       </c>
-      <c r="B187" s="42">
+      <c r="B187" s="41">
         <v>149</v>
       </c>
-      <c r="C187" s="38" t="s">
+      <c r="C187" s="37" t="s">
         <v>428</v>
       </c>
-      <c r="D187" s="21" t="s">
+      <c r="D187" s="20" t="s">
         <v>7</v>
       </c>
       <c r="E187" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="24" t="s">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="B188" s="42">
+      <c r="B188" s="41">
         <v>172</v>
       </c>
-      <c r="C188" s="38" t="s">
+      <c r="C188" s="37" t="s">
         <v>430</v>
       </c>
-      <c r="D188" s="21" t="s">
+      <c r="D188" s="20" t="s">
         <v>7</v>
       </c>
       <c r="E188" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="24" t="s">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="23" t="s">
         <v>431</v>
       </c>
-      <c r="B189" s="42">
+      <c r="B189" s="41">
         <v>39</v>
       </c>
-      <c r="C189" s="39" t="s">
+      <c r="C189" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D189" s="21" t="s">
+      <c r="D189" s="20" t="s">
         <v>3</v>
       </c>
       <c r="E189" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="24" t="s">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="23" t="s">
         <v>432</v>
       </c>
-      <c r="B190" s="42">
+      <c r="B190" s="41">
         <v>48</v>
       </c>
-      <c r="C190" s="39" t="s">
+      <c r="C190" s="38" t="s">
         <v>433</v>
       </c>
-      <c r="D190" s="21" t="s">
+      <c r="D190" s="20" t="s">
         <v>3</v>
       </c>
       <c r="E190" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="24" t="s">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="B191" s="42">
+      <c r="B191" s="41">
         <v>59</v>
       </c>
-      <c r="C191" s="39" t="s">
+      <c r="C191" s="38" t="s">
         <v>435</v>
       </c>
-      <c r="D191" s="21" t="s">
+      <c r="D191" s="20" t="s">
         <v>3</v>
       </c>
       <c r="E191" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="24" t="s">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="23" t="s">
         <v>436</v>
       </c>
-      <c r="B192" s="42">
+      <c r="B192" s="41">
         <v>61</v>
       </c>
-      <c r="C192" s="39" t="s">
+      <c r="C192" s="38" t="s">
         <v>437</v>
       </c>
-      <c r="D192" s="21" t="s">
+      <c r="D192" s="20" t="s">
         <v>3</v>
       </c>
       <c r="E192" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="24" t="s">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="B193" s="42">
+      <c r="B193" s="41">
         <v>70</v>
       </c>
-      <c r="C193" s="39" t="s">
+      <c r="C193" s="38" t="s">
         <v>439</v>
       </c>
-      <c r="D193" s="21" t="s">
+      <c r="D193" s="20" t="s">
         <v>3</v>
       </c>
       <c r="E193" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="24" t="s">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" s="23" t="s">
         <v>440</v>
       </c>
-      <c r="B194" s="42">
+      <c r="B194" s="41">
         <v>82</v>
       </c>
-      <c r="C194" s="39" t="s">
+      <c r="C194" s="38" t="s">
         <v>441</v>
       </c>
-      <c r="D194" s="21" t="s">
+      <c r="D194" s="20" t="s">
         <v>3</v>
       </c>
       <c r="E194" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="24" t="s">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="B195" s="42">
+      <c r="B195" s="41">
         <v>108</v>
       </c>
-      <c r="C195" s="39" t="s">
+      <c r="C195" s="38" t="s">
         <v>443</v>
       </c>
-      <c r="D195" s="21" t="s">
+      <c r="D195" s="20" t="s">
         <v>3</v>
       </c>
       <c r="E195" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="24" t="s">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" s="23" t="s">
         <v>444</v>
       </c>
-      <c r="B196" s="42">
+      <c r="B196" s="41">
         <v>111</v>
       </c>
-      <c r="C196" s="39" t="s">
+      <c r="C196" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="D196" s="21" t="s">
+      <c r="D196" s="20" t="s">
         <v>3</v>
       </c>
       <c r="E196" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="24" t="s">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" s="23" t="s">
         <v>446</v>
       </c>
-      <c r="B197" s="42">
+      <c r="B197" s="41">
         <v>120</v>
       </c>
-      <c r="C197" s="39" t="s">
+      <c r="C197" s="38" t="s">
         <v>447</v>
       </c>
-      <c r="D197" s="21" t="s">
+      <c r="D197" s="20" t="s">
         <v>3</v>
       </c>
       <c r="E197" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="24" t="s">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" s="23" t="s">
         <v>448</v>
       </c>
-      <c r="B198" s="42">
+      <c r="B198" s="41">
         <v>122</v>
       </c>
-      <c r="C198" s="39" t="s">
+      <c r="C198" s="38" t="s">
         <v>449</v>
       </c>
-      <c r="D198" s="21" t="s">
+      <c r="D198" s="20" t="s">
         <v>3</v>
       </c>
       <c r="E198" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="24" t="s">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" s="23" t="s">
         <v>450</v>
       </c>
-      <c r="B199" s="42">
+      <c r="B199" s="41">
         <v>199</v>
       </c>
-      <c r="C199" s="39" t="s">
+      <c r="C199" s="38" t="s">
         <v>451</v>
       </c>
-      <c r="D199" s="21" t="s">
+      <c r="D199" s="20" t="s">
         <v>3</v>
       </c>
       <c r="E199" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="24" t="s">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B200" s="42">
+      <c r="B200" s="41">
         <v>204</v>
       </c>
-      <c r="C200" s="39" t="s">
+      <c r="C200" s="38" t="s">
         <v>453</v>
       </c>
-      <c r="D200" s="21" t="s">
+      <c r="D200" s="20" t="s">
         <v>3</v>
       </c>
       <c r="E200" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="24" t="s">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="23" t="s">
         <v>454</v>
       </c>
-      <c r="B201" s="42">
+      <c r="B201" s="41">
         <v>206</v>
       </c>
-      <c r="C201" s="39" t="s">
+      <c r="C201" s="38" t="s">
         <v>455</v>
       </c>
-      <c r="D201" s="21" t="s">
+      <c r="D201" s="20" t="s">
         <v>3</v>
       </c>
       <c r="E201" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="24" t="s">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" s="23" t="s">
         <v>456</v>
       </c>
-      <c r="B202" s="42">
+      <c r="B202" s="41">
         <v>209</v>
       </c>
-      <c r="C202" s="39" t="s">
+      <c r="C202" s="38" t="s">
         <v>457</v>
       </c>
-      <c r="D202" s="21" t="s">
+      <c r="D202" s="20" t="s">
         <v>3</v>
       </c>
       <c r="E202" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="24" t="s">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="23" t="s">
         <v>458</v>
       </c>
-      <c r="B203" s="42">
+      <c r="B203" s="41">
         <v>210</v>
       </c>
-      <c r="C203" s="39" t="s">
+      <c r="C203" s="38" t="s">
         <v>459</v>
       </c>
-      <c r="D203" s="21" t="s">
+      <c r="D203" s="20" t="s">
         <v>3</v>
       </c>
       <c r="E203" t="s">
